--- a/src/test/resources/Data/DataTesting.xlsx
+++ b/src/test/resources/Data/DataTesting.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutomationWork\Cash_Regression_Framework\UtilitiesTest\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AutomationWork\Cash_Regression_Framework\TestingBill\src\test\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{289B08DC-B407-4234-85AD-D1426A6CCB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC8AC933-8553-480D-B89E-8702D9AE19D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{52C1AF27-AB75-49C9-BC95-E3A26F5E8FD8}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="99">
   <si>
     <t>BTC</t>
   </si>
@@ -261,6 +261,81 @@
   </si>
   <si>
     <t>014425844559</t>
+  </si>
+  <si>
+    <t>510</t>
+  </si>
+  <si>
+    <t>South Cairo Electricity Bill</t>
+  </si>
+  <si>
+    <t>02:10:36</t>
+  </si>
+  <si>
+    <t>100194711161</t>
+  </si>
+  <si>
+    <t>0213857639</t>
+  </si>
+  <si>
+    <t>014404140013</t>
+  </si>
+  <si>
+    <t>516</t>
+  </si>
+  <si>
+    <t>North Cairo Electricity Bill</t>
+  </si>
+  <si>
+    <t>04:10:47</t>
+  </si>
+  <si>
+    <t>100194893755</t>
+  </si>
+  <si>
+    <t>01105413056507</t>
+  </si>
+  <si>
+    <t>014414459075</t>
+  </si>
+  <si>
+    <t>532</t>
+  </si>
+  <si>
+    <t>Cairo Water</t>
+  </si>
+  <si>
+    <t>07:10:09</t>
+  </si>
+  <si>
+    <t>100194970687</t>
+  </si>
+  <si>
+    <t>014420249834</t>
+  </si>
+  <si>
+    <t>528</t>
+  </si>
+  <si>
+    <t>Matrouh Water</t>
+  </si>
+  <si>
+    <t>09:10:13</t>
+  </si>
+  <si>
+    <t>29-OCT-2025</t>
+  </si>
+  <si>
+    <t>100204084880</t>
+  </si>
+  <si>
+    <t>01228441354</t>
+  </si>
+  <si>
+    <t>04010084444005620001</t>
+  </si>
+  <si>
+    <t>015076001588</t>
   </si>
 </sst>
 </file>
@@ -375,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -408,6 +483,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -744,13 +831,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DCAC034-4636-4966-8F7F-688108C32C4A}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="11" max="11" width="32.90625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
@@ -1208,6 +1298,158 @@
         <v>73</v>
       </c>
     </row>
+    <row r="13" spans="1:12" ht="40" x14ac:dyDescent="0.35">
+      <c r="A13" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="13">
+        <v>9</v>
+      </c>
+      <c r="G13" s="14">
+        <v>5</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.35">
+      <c r="A14" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="13">
+        <v>30</v>
+      </c>
+      <c r="G14" s="14">
+        <v>5</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="20" x14ac:dyDescent="0.35">
+      <c r="A15" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="13">
+        <v>83.81</v>
+      </c>
+      <c r="G15" s="14">
+        <v>5</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="15">
+        <v>173402408</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="20" x14ac:dyDescent="0.35">
+      <c r="A16" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="13">
+        <v>74</v>
+      </c>
+      <c r="G16" s="14">
+        <v>3</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
